--- a/dataset/哈利波特/output/角色统计/哈利波特与密室 第7章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与密室 第7章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>角色</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>纳威</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
   </si>
   <si>
     <t>麦格</t>
@@ -428,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,40 +502,40 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -554,7 +557,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -576,18 +579,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -626,6 +629,17 @@
         <v>18</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
